--- a/01. Requirements/Traceability Matrix.xlsx
+++ b/01. Requirements/Traceability Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\OneDrive\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\OneDrive\Documents\GitHub\Hello-World---PROJECT-X--Automated-Attendance-Tracking-System\01. Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3B698F-7A6C-4B6B-ADE7-C6B76488201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F84861-6DF8-4932-84EE-F887ED51503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -205,13 +205,16 @@
   </si>
   <si>
     <t>Conduct Unit Testing (where applicable)</t>
+  </si>
+  <si>
+    <t>LINK OF THE SPREADSHEET FOR BETTER VIEW: https://docs.google.com/spreadsheets/d/1zGzMMXct7iXR2Hl-LuByJCMRJI764TVWEX56U-hjwGU/edit?gid=713585924#gid=713585924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +246,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -319,10 +329,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,8 +353,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,9 +576,11 @@
     <tabColor rgb="FF7F6000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1542,7 +1559,25 @@
       </c>
       <c r="I36" s="5"/>
     </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A38:H38"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A38" r:id="rId1" location="gid=713585924" display="https://docs.google.com/spreadsheets/d/1zGzMMXct7iXR2Hl-LuByJCMRJI764TVWEX56U-hjwGU/edit?gid=713585924#gid=713585924" xr:uid="{5C9D854F-8BE7-4529-BD44-6D4A0EBACA91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>